--- a/Opollo/src/test/data/pms/single_product_import_update_template_v8.xlsx
+++ b/Opollo/src/test/data/pms/single_product_import_update_template_v8.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/op-eq-0669/Desktop/opollo/apps/opollo_admin/assets/src/static/files/"/>
     </mc:Choice>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="587">
   <si>
     <t>Org Code</t>
   </si>
@@ -2148,11 +2148,54 @@
   <si>
     <t>Fill VAT Out Code</t>
   </si>
+  <si>
+    <t>SKUOP_TEST10</t>
+  </si>
+  <si>
+    <t>E9PAIBOQ</t>
+  </si>
+  <si>
+    <t>L9JDM88X</t>
+  </si>
+  <si>
+    <t>NESTLE</t>
+  </si>
+  <si>
+    <t>outright</t>
+  </si>
+  <si>
+    <t>LKLSE7REIW</t>
+  </si>
+  <si>
+    <t>Single SKU</t>
+  </si>
+  <si>
+    <t>IE-AC-PH</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NESTLE, </t>
+  </si>
+  <si>
+    <t>acb123</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>pickup_by_buyer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="20">
     <font>
       <sz val="10"/>
@@ -2742,7 +2785,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AF245"/>
+  <dimension ref="A1:AL245"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -2750,29 +2793,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
-    <col min="2" max="4" width="26.1640625" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="6" width="29.5" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.5" style="27"/>
-    <col min="20" max="20" width="17.83203125" style="27" customWidth="1"/>
-    <col min="21" max="21" width="36.6640625" customWidth="1"/>
-    <col min="22" max="22" width="32.5" customWidth="1"/>
-    <col min="23" max="23" width="32.83203125" customWidth="1"/>
-    <col min="24" max="24" width="33.1640625" customWidth="1"/>
-    <col min="25" max="25" width="28.6640625" customWidth="1"/>
-    <col min="26" max="26" width="21.5" customWidth="1"/>
-    <col min="27" max="28" width="30.5" customWidth="1"/>
-    <col min="29" max="29" width="17.5" customWidth="1"/>
-    <col min="30" max="30" width="20" customWidth="1"/>
-    <col min="31" max="31" width="23" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="19.1640625" collapsed="false"/>
+    <col min="2" max="4" customWidth="true" width="26.1640625" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="31.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="29.5" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="16.5" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="21.33203125" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="19.5" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.6640625" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="20.6640625" collapsed="false"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="20.6640625" collapsed="false"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.1640625" collapsed="false"/>
+    <col min="18" max="19" style="27" width="14.5" collapsed="false"/>
+    <col min="20" max="20" customWidth="true" style="27" width="17.83203125" collapsed="false"/>
+    <col min="21" max="21" customWidth="true" width="36.6640625" collapsed="false"/>
+    <col min="22" max="22" customWidth="true" width="32.5" collapsed="false"/>
+    <col min="23" max="23" customWidth="true" width="32.83203125" collapsed="false"/>
+    <col min="24" max="24" customWidth="true" width="33.1640625" collapsed="false"/>
+    <col min="25" max="25" customWidth="true" width="28.6640625" collapsed="false"/>
+    <col min="26" max="26" customWidth="true" width="21.5" collapsed="false"/>
+    <col min="27" max="28" customWidth="true" width="30.5" collapsed="false"/>
+    <col min="29" max="29" customWidth="true" width="17.5" collapsed="false"/>
+    <col min="30" max="30" customWidth="true" width="20.0" collapsed="false"/>
+    <col min="31" max="31" customWidth="true" width="23.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="14" hidden="1" customHeight="1">
@@ -3052,27 +3095,106 @@
       </c>
     </row>
     <row r="4" spans="1:32" ht="18">
-      <c r="A4" s="22"/>
-      <c r="E4" s="21"/>
+      <c r="A4" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="B4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C4" t="s">
+        <v>575</v>
+      </c>
+      <c r="D4" t="s">
+        <v>576</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>577</v>
+      </c>
+      <c r="F4" t="s">
+        <v>576</v>
+      </c>
       <c r="G4" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="I4" t="s">
+        <v>579</v>
+      </c>
+      <c r="J4" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="K4" t="s">
         <v>5</v>
       </c>
+      <c r="L4" t="s">
+        <v>580</v>
+      </c>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="AA4" s="21"/>
+      <c r="N4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>582</v>
+      </c>
+      <c r="S4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="26" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>222.0</v>
+      </c>
+      <c r="X4" s="2" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="Y4" s="2" t="n">
+        <v>3333.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>4444.0</v>
+      </c>
+      <c r="AA4" s="21" t="n">
+        <v>555.0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>583</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>584</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>585</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="5" spans="1:32" ht="18">
       <c r="A5" s="22"/>
@@ -6824,7 +6946,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="59.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="59.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
